--- a/source-data.xlsx
+++ b/source-data.xlsx
@@ -5,21 +5,26 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uniqu\Desktop\IMO-25-5531931-V1格式修改意见\Daqu-community-analysis\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\uniqu\Documents\GitHub\Daqu-community-analysis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7C63D315-6034-4C38-B432-416D7066960F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{16547631-AD3E-4F6F-9582-3BB5F7FBB98E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="6" xr2:uid="{B5777E57-F0FA-4F13-A809-5F80550AD1BF}"/>
+    <workbookView xWindow="-103" yWindow="-103" windowWidth="26537" windowHeight="15943" activeTab="3" xr2:uid="{B5777E57-F0FA-4F13-A809-5F80550AD1BF}"/>
   </bookViews>
   <sheets>
-    <sheet name="Figure 1c" sheetId="1" r:id="rId1"/>
-    <sheet name="Figure 1g" sheetId="2" r:id="rId2"/>
-    <sheet name="Figure 2a-b" sheetId="3" r:id="rId3"/>
-    <sheet name="Figure 3g" sheetId="4" r:id="rId4"/>
-    <sheet name="Figure 4b" sheetId="5" r:id="rId5"/>
-    <sheet name="Figure 4d-g" sheetId="6" r:id="rId6"/>
-    <sheet name="Figure 5d-e" sheetId="7" r:id="rId7"/>
+    <sheet name="Figure 1C" sheetId="1" r:id="rId1"/>
+    <sheet name="Figure 1G" sheetId="2" r:id="rId2"/>
+    <sheet name="Figure 2A-B" sheetId="3" r:id="rId3"/>
+    <sheet name="Figure 3A" sheetId="8" r:id="rId4"/>
+    <sheet name="Figure 3B" sheetId="9" r:id="rId5"/>
+    <sheet name="Figure 3C" sheetId="10" r:id="rId6"/>
+    <sheet name="Figure 3D" sheetId="11" r:id="rId7"/>
+    <sheet name="Figure 3G" sheetId="4" r:id="rId8"/>
+    <sheet name="Figure 4A" sheetId="12" r:id="rId9"/>
+    <sheet name="Figure 4B" sheetId="5" r:id="rId10"/>
+    <sheet name="Figure 4D-G" sheetId="6" r:id="rId11"/>
+    <sheet name="Figure 5C" sheetId="7" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -40,10 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="90">
-  <si>
-    <t>Figure 1c</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="95">
   <si>
     <t>Temperature</t>
   </si>
@@ -101,19 +103,10 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Figure 1g</t>
-  </si>
-  <si>
     <t>Abundance</t>
   </si>
   <si>
     <t>Node persistence</t>
-  </si>
-  <si>
-    <t>Figure 2a-b</t>
-  </si>
-  <si>
-    <t>Figure 3g</t>
   </si>
   <si>
     <t>Paecilomyces variotii</t>
@@ -209,12 +202,6 @@
     <t>Timema californicum</t>
   </si>
   <si>
-    <t>Figure 4b</t>
-  </si>
-  <si>
-    <t>Figure 4d-g</t>
-  </si>
-  <si>
     <t>All species</t>
   </si>
   <si>
@@ -258,30 +245,12 @@
     <t>61°C</t>
   </si>
   <si>
-    <t>A</t>
-  </si>
-  <si>
-    <t>B</t>
-  </si>
-  <si>
-    <t>C</t>
-  </si>
-  <si>
-    <t>D</t>
-  </si>
-  <si>
-    <t>E</t>
-  </si>
-  <si>
     <t>Absolute quantification</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>SD</t>
     <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Figure 5d-e</t>
   </si>
   <si>
     <r>
@@ -459,6 +428,69 @@
     </r>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>x-axis</t>
+  </si>
+  <si>
+    <t>0:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>3:1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>1:0</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 5C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 4D-G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 4B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 3B</t>
+  </si>
+  <si>
+    <t>Figure 3G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 3D</t>
+  </si>
+  <si>
+    <t>Figure 3C</t>
+  </si>
+  <si>
+    <t>Figure 3A</t>
+  </si>
+  <si>
+    <t>Figure 2A-B</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 1G</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Figure 1C</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -532,7 +564,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -556,6 +588,15 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -874,7 +915,7 @@
   <dimension ref="A1:D79"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I5" sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3:D3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -888,18 +929,18 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="2" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
+      <c r="C3" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="3" t="s">
+      <c r="D3" s="2" t="s">
         <v>2</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>3</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.35">
@@ -1739,6 +1780,1817 @@
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4881D065-7F42-48A5-8123-7DA2F83916D9}">
+  <dimension ref="A1:D17"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C24" sqref="C24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="9" style="3"/>
+    <col min="2" max="2" width="29" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.35546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="11.2109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="C2" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="C3" s="3">
+        <v>285.86842105263156</v>
+      </c>
+      <c r="D3" s="3">
+        <v>0.19368680746181463</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B4" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C4" s="3">
+        <v>274.98684210526318</v>
+      </c>
+      <c r="D4" s="3">
+        <v>0.17799030157819645</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B5" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="C5" s="3">
+        <v>281.06578947368422</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.17783665191148035</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B6" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C6" s="3">
+        <v>279.80263157894734</v>
+      </c>
+      <c r="D6" s="3">
+        <v>0.19606564496028608</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B7" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C7" s="3">
+        <v>284.86842105263156</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.19368680746181463</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B8" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C8" s="3">
+        <v>283.86842105263156</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.1963500968886569</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B9" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C9" s="3">
+        <v>283.7763157894737</v>
+      </c>
+      <c r="D9" s="3">
+        <v>0.195693493213733</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B10" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C10" s="3">
+        <v>284.85526315789474</v>
+      </c>
+      <c r="D10" s="3">
+        <v>0.19490031133955762</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B11" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C11" s="3">
+        <v>284.06578947368422</v>
+      </c>
+      <c r="D11" s="3">
+        <v>0.18168906492778136</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B12" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C12" s="3">
+        <v>283.86842105263156</v>
+      </c>
+      <c r="D12" s="3">
+        <v>0.19368680746181463</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B13" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="3">
+        <v>283.86842105263156</v>
+      </c>
+      <c r="D13" s="3">
+        <v>0.19368680746181463</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B14" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C14" s="3">
+        <v>283.93421052631578</v>
+      </c>
+      <c r="D14" s="3">
+        <v>0.19368092667034306</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B15" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C15" s="3">
+        <v>283.82894736842104</v>
+      </c>
+      <c r="D15" s="3">
+        <v>0.19193229225744421</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="B16" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C16" s="3">
+        <v>284.92105263157896</v>
+      </c>
+      <c r="D16" s="3">
+        <v>0.1820960960336557</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
+      <c r="B17" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C17" s="3">
+        <v>284.82894736842104</v>
+      </c>
+      <c r="D17" s="3">
+        <v>0.19550715169129626</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E173EE95-8E68-46B4-897D-E0DAFD1804F1}">
+  <dimension ref="A1:F78"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.35546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="9" style="3"/>
+    <col min="3" max="3" width="12.640625" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.5" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.5703125" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="14.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B2" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B3" s="4">
+        <v>28.0625</v>
+      </c>
+      <c r="C3" s="4">
+        <v>0.83702047342283903</v>
+      </c>
+      <c r="D3" s="4">
+        <v>0.10983606557377</v>
+      </c>
+      <c r="E3" s="4">
+        <v>0.68620982184937296</v>
+      </c>
+      <c r="F3" s="4">
+        <v>4.8860000000000001E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B4" s="4">
+        <v>28.6875</v>
+      </c>
+      <c r="C4" s="4">
+        <v>0.63058158559751398</v>
+      </c>
+      <c r="D4" s="4">
+        <v>0.15833333333333299</v>
+      </c>
+      <c r="E4" s="4">
+        <v>0.66272189349112398</v>
+      </c>
+      <c r="F4" s="4">
+        <v>4.5039999999999997E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B5" s="4">
+        <v>29.375</v>
+      </c>
+      <c r="C5" s="4">
+        <v>0.69469088800448497</v>
+      </c>
+      <c r="D5" s="4">
+        <v>5.9237319511292102E-2</v>
+      </c>
+      <c r="E5" s="4">
+        <v>0.83680236710539802</v>
+      </c>
+      <c r="F5" s="4">
+        <v>3.8800000000000001E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B6" s="4">
+        <v>29.9375</v>
+      </c>
+      <c r="C6" s="4">
+        <v>0.71422787504400798</v>
+      </c>
+      <c r="D6" s="4">
+        <v>0.175824175824176</v>
+      </c>
+      <c r="E6" s="4">
+        <v>0.350415512465374</v>
+      </c>
+      <c r="F6" s="4">
+        <v>3.3669999999999999E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B7" s="4">
+        <v>30.6875</v>
+      </c>
+      <c r="C7" s="4">
+        <v>0.74714000000000003</v>
+      </c>
+      <c r="D7" s="4">
+        <v>0.12116</v>
+      </c>
+      <c r="E7" s="4">
+        <v>0.62802000000000002</v>
+      </c>
+      <c r="F7" s="4">
+        <v>0.31273000000000001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B8" s="4">
+        <v>31.8125</v>
+      </c>
+      <c r="C8" s="4">
+        <v>0.727117674428989</v>
+      </c>
+      <c r="D8" s="4">
+        <v>6.9696969696969702E-2</v>
+      </c>
+      <c r="E8" s="4">
+        <v>0.83556711758584801</v>
+      </c>
+      <c r="F8" s="4">
+        <v>2.5819999999999999E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B9" s="4">
+        <v>33</v>
+      </c>
+      <c r="C9" s="4">
+        <v>1.0571225366741901</v>
+      </c>
+      <c r="D9" s="4">
+        <v>0.169503546099291</v>
+      </c>
+      <c r="E9" s="4">
+        <v>0.44449669600000002</v>
+      </c>
+      <c r="F9" s="4">
+        <v>2.7570000000000001E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B10" s="4">
+        <v>34.0625</v>
+      </c>
+      <c r="C10" s="4">
+        <v>0.79405415063136398</v>
+      </c>
+      <c r="D10" s="4">
+        <v>0.24838709677419399</v>
+      </c>
+      <c r="E10" s="4">
+        <v>0.33034328817898601</v>
+      </c>
+      <c r="F10" s="4">
+        <v>3.1649999999999998E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B11" s="4">
+        <v>35.25</v>
+      </c>
+      <c r="C11" s="4">
+        <v>0.68212983879305999</v>
+      </c>
+      <c r="D11" s="4">
+        <v>0.16893311221669399</v>
+      </c>
+      <c r="E11" s="4">
+        <v>0.47430536499999998</v>
+      </c>
+      <c r="F11" s="4">
+        <v>3.1609999999999999E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B12" s="4">
+        <v>36.5</v>
+      </c>
+      <c r="C12" s="4">
+        <v>0.75885677384124905</v>
+      </c>
+      <c r="D12" s="4">
+        <v>0.25223613595706601</v>
+      </c>
+      <c r="E12" s="4">
+        <v>0.36721826000000002</v>
+      </c>
+      <c r="F12" s="4">
+        <v>3.2550000000000003E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B13" s="4">
+        <v>37.625</v>
+      </c>
+      <c r="C13" s="4">
+        <v>0.85993443448528295</v>
+      </c>
+      <c r="D13" s="4">
+        <v>0.20749206349206401</v>
+      </c>
+      <c r="E13" s="4">
+        <v>0.393398056</v>
+      </c>
+      <c r="F13" s="4">
+        <v>3.6999999999999998E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B14" s="4">
+        <v>38.8125</v>
+      </c>
+      <c r="C14" s="4">
+        <v>0.68837502203984602</v>
+      </c>
+      <c r="D14" s="4">
+        <v>0.25018108068955502</v>
+      </c>
+      <c r="E14" s="4">
+        <v>0.28223052909838803</v>
+      </c>
+      <c r="F14" s="4">
+        <v>5.3859999999999998E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B15" s="4">
+        <v>39.6875</v>
+      </c>
+      <c r="C15" s="4">
+        <v>0.60209506827874704</v>
+      </c>
+      <c r="D15" s="4">
+        <v>0.274488551686763</v>
+      </c>
+      <c r="E15" s="4">
+        <v>0.14523574039362</v>
+      </c>
+      <c r="F15" s="4">
+        <v>4.231E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="B16" s="4">
+        <v>40.25</v>
+      </c>
+      <c r="C16" s="4">
+        <v>0.60482294247254897</v>
+      </c>
+      <c r="D16" s="4">
+        <v>0.292709677419355</v>
+      </c>
+      <c r="E16" s="4">
+        <v>0.21398171369062299</v>
+      </c>
+      <c r="F16" s="4">
+        <v>4.351E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B17" s="4">
+        <v>40.6875</v>
+      </c>
+      <c r="C17" s="4">
+        <v>0.67488593702973998</v>
+      </c>
+      <c r="D17" s="4">
+        <v>0.27508996401439401</v>
+      </c>
+      <c r="E17" s="4">
+        <v>0.14363007699999999</v>
+      </c>
+      <c r="F17" s="4">
+        <v>4.3180000000000003E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B18" s="4">
+        <v>41.125</v>
+      </c>
+      <c r="C18" s="4">
+        <v>0.66963329702678798</v>
+      </c>
+      <c r="D18" s="4">
+        <v>0.27736131934032998</v>
+      </c>
+      <c r="E18" s="4">
+        <v>0.23546725908512001</v>
+      </c>
+      <c r="F18" s="4">
+        <v>4.0960000000000003E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B19" s="4">
+        <v>41.375</v>
+      </c>
+      <c r="C19" s="4">
+        <v>0.72129898466238196</v>
+      </c>
+      <c r="D19" s="4">
+        <v>0.28263203091455602</v>
+      </c>
+      <c r="E19" s="4">
+        <v>0.469056451916259</v>
+      </c>
+      <c r="F19" s="4">
+        <v>3.8280000000000002E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B20" s="4">
+        <v>41.5625</v>
+      </c>
+      <c r="C20" s="4">
+        <v>0.678365627505498</v>
+      </c>
+      <c r="D20" s="4">
+        <v>0.208361813624972</v>
+      </c>
+      <c r="E20" s="4">
+        <v>0.46146028446624099</v>
+      </c>
+      <c r="F20" s="4">
+        <v>3.8359999999999998E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B21" s="4">
+        <v>41.8125</v>
+      </c>
+      <c r="C21" s="4">
+        <v>0.66029329937719194</v>
+      </c>
+      <c r="D21" s="4">
+        <v>0.21860621703512501</v>
+      </c>
+      <c r="E21" s="4">
+        <v>0.38880270783946003</v>
+      </c>
+      <c r="F21" s="4">
+        <v>4.3749999999999997E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B22" s="4">
+        <v>42</v>
+      </c>
+      <c r="C22" s="4">
+        <v>0.77133309287363006</v>
+      </c>
+      <c r="D22" s="4">
+        <v>0.23074094502665901</v>
+      </c>
+      <c r="E22" s="4">
+        <v>0.34366260591503101</v>
+      </c>
+      <c r="F22" s="4">
+        <v>4.0759999999999998E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B23" s="4">
+        <v>42.1875</v>
+      </c>
+      <c r="C23" s="4">
+        <v>0.76040111928371001</v>
+      </c>
+      <c r="D23" s="4">
+        <v>0.19144482610562499</v>
+      </c>
+      <c r="E23" s="4">
+        <v>0.41612249530944301</v>
+      </c>
+      <c r="F23" s="4">
+        <v>3.9329999999999997E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B24" s="4">
+        <v>42.3125</v>
+      </c>
+      <c r="C24" s="4">
+        <v>0.77133309287363006</v>
+      </c>
+      <c r="D24" s="4">
+        <v>0.23074094502665901</v>
+      </c>
+      <c r="E24" s="4">
+        <v>0.34366260599999998</v>
+      </c>
+      <c r="F24" s="4">
+        <v>3.9609999999999999E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B25" s="4">
+        <v>42.4375</v>
+      </c>
+      <c r="C25" s="4">
+        <v>0.78238258693668905</v>
+      </c>
+      <c r="D25" s="4">
+        <v>0.21804511278195499</v>
+      </c>
+      <c r="E25" s="4">
+        <v>0.41664159451831601</v>
+      </c>
+      <c r="F25" s="4">
+        <v>5.3159999999999999E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B26" s="4">
+        <v>42.6875</v>
+      </c>
+      <c r="C26" s="4">
+        <v>0.72637082621542504</v>
+      </c>
+      <c r="D26" s="4">
+        <v>0.218329684078824</v>
+      </c>
+      <c r="E26" s="4">
+        <v>0.439833723373449</v>
+      </c>
+      <c r="F26" s="4">
+        <v>4.2619999999999998E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B27" s="4">
+        <v>43</v>
+      </c>
+      <c r="C27" s="4">
+        <v>0.78004598384687596</v>
+      </c>
+      <c r="D27" s="4">
+        <v>0.22692574600971499</v>
+      </c>
+      <c r="E27" s="4">
+        <v>0.318156518389551</v>
+      </c>
+      <c r="F27" s="4">
+        <v>4.1709999999999997E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B28" s="4">
+        <v>43.375</v>
+      </c>
+      <c r="C28" s="4">
+        <v>0.83989974737579398</v>
+      </c>
+      <c r="D28" s="4">
+        <v>0.21622237411711101</v>
+      </c>
+      <c r="E28" s="4">
+        <v>0.33080189842209101</v>
+      </c>
+      <c r="F28" s="4">
+        <v>4.4560000000000002E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B29" s="4">
+        <v>43.6875</v>
+      </c>
+      <c r="C29" s="4">
+        <v>0.90840045716530005</v>
+      </c>
+      <c r="D29" s="4">
+        <v>0.184290213178295</v>
+      </c>
+      <c r="E29" s="4">
+        <v>0.43575740155217002</v>
+      </c>
+      <c r="F29" s="4">
+        <v>4.7649999999999998E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B30" s="4">
+        <v>44.0625</v>
+      </c>
+      <c r="C30" s="4">
+        <v>0.79212833720073095</v>
+      </c>
+      <c r="D30" s="4">
+        <v>0.20998622589531701</v>
+      </c>
+      <c r="E30" s="4">
+        <v>0.43872814629171297</v>
+      </c>
+      <c r="F30" s="4">
+        <v>4.3369999999999999E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B31" s="4">
+        <v>44.4375</v>
+      </c>
+      <c r="C31" s="4">
+        <v>0.69189919501975605</v>
+      </c>
+      <c r="D31" s="4">
+        <v>0.18948283355063</v>
+      </c>
+      <c r="E31" s="4">
+        <v>0.40712981472203902</v>
+      </c>
+      <c r="F31" s="4">
+        <v>4.5010000000000001E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B32" s="4">
+        <v>44.8125</v>
+      </c>
+      <c r="C32" s="4">
+        <v>0.79644132118029998</v>
+      </c>
+      <c r="D32" s="4">
+        <v>0.193668954996186</v>
+      </c>
+      <c r="E32" s="4">
+        <v>0.42308200129076001</v>
+      </c>
+      <c r="F32" s="4">
+        <v>4.4650000000000002E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B33" s="4">
+        <v>45.3125</v>
+      </c>
+      <c r="C33" s="4">
+        <v>0.72692050579350997</v>
+      </c>
+      <c r="D33" s="4">
+        <v>0.241850941850942</v>
+      </c>
+      <c r="E33" s="4">
+        <v>0.47500603791812601</v>
+      </c>
+      <c r="F33" s="4">
+        <v>4.845E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B34" s="4">
+        <v>45.75</v>
+      </c>
+      <c r="C34" s="4">
+        <v>0.90394065943559498</v>
+      </c>
+      <c r="D34" s="4">
+        <v>0.17331334332833601</v>
+      </c>
+      <c r="E34" s="4">
+        <v>0.49785489519009202</v>
+      </c>
+      <c r="F34" s="4">
+        <v>4.3220000000000001E-2</v>
+      </c>
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B35" s="4">
+        <v>46.1875</v>
+      </c>
+      <c r="C35" s="4">
+        <v>0.84996236032082495</v>
+      </c>
+      <c r="D35" s="4">
+        <v>0.14153816866552399</v>
+      </c>
+      <c r="E35" s="4">
+        <v>0.65866588509931601</v>
+      </c>
+      <c r="F35" s="4">
+        <v>4.9259999999999998E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B36" s="4">
+        <v>46.625</v>
+      </c>
+      <c r="C36" s="4">
+        <v>0.88730167777317703</v>
+      </c>
+      <c r="D36" s="4">
+        <v>0.18925632665735101</v>
+      </c>
+      <c r="E36" s="4">
+        <v>0.45927685593580603</v>
+      </c>
+      <c r="F36" s="4">
+        <v>5.4670000000000003E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B37" s="4">
+        <v>47.125</v>
+      </c>
+      <c r="C37" s="4">
+        <v>0.83841588764193098</v>
+      </c>
+      <c r="D37" s="4">
+        <v>0.25885129819040098</v>
+      </c>
+      <c r="E37" s="4">
+        <v>0.37991071999999998</v>
+      </c>
+      <c r="F37" s="4">
+        <v>4.505E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B38" s="4">
+        <v>47.5625</v>
+      </c>
+      <c r="C38" s="4">
+        <v>0.91074082762695996</v>
+      </c>
+      <c r="D38" s="4">
+        <v>0.22034745656792901</v>
+      </c>
+      <c r="E38" s="4">
+        <v>0.249616321746778</v>
+      </c>
+      <c r="F38" s="4">
+        <v>3.8809999999999997E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B39" s="4">
+        <v>48</v>
+      </c>
+      <c r="C39" s="4">
+        <v>0.817025921467181</v>
+      </c>
+      <c r="D39" s="4">
+        <v>0.21834770653668301</v>
+      </c>
+      <c r="E39" s="4">
+        <v>0.32556921454492799</v>
+      </c>
+      <c r="F39" s="4">
+        <v>3.7859999999999998E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B40" s="4">
+        <v>48.375</v>
+      </c>
+      <c r="C40" s="4">
+        <v>0.84065791981442095</v>
+      </c>
+      <c r="D40" s="4">
+        <v>0.27009196321471401</v>
+      </c>
+      <c r="E40" s="4">
+        <v>0.232759979869023</v>
+      </c>
+      <c r="F40" s="4">
+        <v>3.9660000000000001E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B41" s="4">
+        <v>48.75</v>
+      </c>
+      <c r="C41" s="4">
+        <v>0.787630014775485</v>
+      </c>
+      <c r="D41" s="4">
+        <v>0.25740025740025702</v>
+      </c>
+      <c r="E41" s="4">
+        <v>0.27639083989208502</v>
+      </c>
+      <c r="F41" s="4">
+        <v>3.9530000000000003E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B42" s="4">
+        <v>49.1875</v>
+      </c>
+      <c r="C42" s="4">
+        <v>0.66689138597765896</v>
+      </c>
+      <c r="D42" s="4">
+        <v>0.263530927835052</v>
+      </c>
+      <c r="E42" s="4">
+        <v>0.23440710059171599</v>
+      </c>
+      <c r="F42" s="4">
+        <v>3.4939999999999999E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B43" s="4">
+        <v>49.5625</v>
+      </c>
+      <c r="C43" s="4">
+        <v>0.81372886578495596</v>
+      </c>
+      <c r="D43" s="4">
+        <v>0.23053493241956999</v>
+      </c>
+      <c r="E43" s="4">
+        <v>0.43429029893120802</v>
+      </c>
+      <c r="F43" s="4">
+        <v>4.453E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B44" s="4">
+        <v>49.875</v>
+      </c>
+      <c r="C44" s="4">
+        <v>0.71475611427538199</v>
+      </c>
+      <c r="D44" s="4">
+        <v>0.120195065978199</v>
+      </c>
+      <c r="E44" s="4">
+        <v>0.69685829759881701</v>
+      </c>
+      <c r="F44" s="4">
+        <v>3.9120000000000002E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B45" s="4">
+        <v>50.1875</v>
+      </c>
+      <c r="C45" s="4">
+        <v>0.72411827130331696</v>
+      </c>
+      <c r="D45" s="4">
+        <v>0.10989010989011</v>
+      </c>
+      <c r="E45" s="4">
+        <v>0.58358986588044903</v>
+      </c>
+      <c r="F45" s="4">
+        <v>3.8420000000000003E-2</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B46" s="4">
+        <v>50.5625</v>
+      </c>
+      <c r="C46" s="4">
+        <v>0.72268679922915702</v>
+      </c>
+      <c r="D46" s="4">
+        <v>0.140451832907076</v>
+      </c>
+      <c r="E46" s="4">
+        <v>0.56032406187662298</v>
+      </c>
+      <c r="F46" s="4">
+        <v>3.9440000000000003E-2</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B47" s="4">
+        <v>50.9375</v>
+      </c>
+      <c r="C47" s="4">
+        <v>0.62917665565416803</v>
+      </c>
+      <c r="D47" s="4">
+        <v>0.137543859649123</v>
+      </c>
+      <c r="E47" s="4">
+        <v>0.619938120274102</v>
+      </c>
+      <c r="F47" s="4">
+        <v>5.7110000000000001E-2</v>
+      </c>
+    </row>
+    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B48" s="4">
+        <v>51.3125</v>
+      </c>
+      <c r="C48" s="4">
+        <v>0.78913693341189395</v>
+      </c>
+      <c r="D48" s="4">
+        <v>0.12654320987654299</v>
+      </c>
+      <c r="E48" s="4">
+        <v>0.64819566716702504</v>
+      </c>
+      <c r="F48" s="4">
+        <v>3.884E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B49" s="4">
+        <v>51.625</v>
+      </c>
+      <c r="C49" s="4">
+        <v>0.60410522310745596</v>
+      </c>
+      <c r="D49" s="4">
+        <v>0.107503607503608</v>
+      </c>
+      <c r="E49" s="4">
+        <v>0.60969662360848598</v>
+      </c>
+      <c r="F49" s="4">
+        <v>3.6470000000000002E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B50" s="4">
+        <v>51.875</v>
+      </c>
+      <c r="C50" s="4">
+        <v>0.714658966421018</v>
+      </c>
+      <c r="D50" s="4">
+        <v>0.22967827907862201</v>
+      </c>
+      <c r="E50" s="4">
+        <v>0.39382924819144699</v>
+      </c>
+      <c r="F50" s="4">
+        <v>3.5630000000000002E-2</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B51" s="4">
+        <v>52.125</v>
+      </c>
+      <c r="C51" s="4">
+        <v>0.71581527536176304</v>
+      </c>
+      <c r="D51" s="4">
+        <v>0.29124270225187698</v>
+      </c>
+      <c r="E51" s="4">
+        <v>0.44615770137399402</v>
+      </c>
+      <c r="F51" s="4">
+        <v>3.4340000000000002E-2</v>
+      </c>
+    </row>
+    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B52" s="4">
+        <v>52.4375</v>
+      </c>
+      <c r="C52" s="4">
+        <v>0.64234153043784603</v>
+      </c>
+      <c r="D52" s="4">
+        <v>0.26270913770913801</v>
+      </c>
+      <c r="E52" s="4">
+        <v>0.40394832033356098</v>
+      </c>
+      <c r="F52" s="4">
+        <v>2.8029999999999999E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B53" s="4">
+        <v>52.75</v>
+      </c>
+      <c r="C53" s="4">
+        <v>0.77079212730668001</v>
+      </c>
+      <c r="D53" s="4">
+        <v>0.23122109736283</v>
+      </c>
+      <c r="E53" s="4">
+        <v>0.26349382569803997</v>
+      </c>
+      <c r="F53" s="4">
+        <v>3.184E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B54" s="4">
+        <v>53.0625</v>
+      </c>
+      <c r="C54" s="4">
+        <v>0.74499134501294695</v>
+      </c>
+      <c r="D54" s="4">
+        <v>0.240564738292011</v>
+      </c>
+      <c r="E54" s="4">
+        <v>0.29541315187358202</v>
+      </c>
+      <c r="F54" s="4">
+        <v>3.6889999999999999E-2</v>
+      </c>
+    </row>
+    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B55" s="4">
+        <v>53.5</v>
+      </c>
+      <c r="C55" s="4">
+        <v>0.855265562270493</v>
+      </c>
+      <c r="D55" s="4">
+        <v>0.21358267716535401</v>
+      </c>
+      <c r="E55" s="4">
+        <v>0.29038013560263598</v>
+      </c>
+      <c r="F55" s="4">
+        <v>4.0770000000000001E-2</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B56" s="4">
+        <v>54</v>
+      </c>
+      <c r="C56" s="4">
+        <v>0.76868427632116398</v>
+      </c>
+      <c r="D56" s="4">
+        <v>0.242650047419049</v>
+      </c>
+      <c r="E56" s="4">
+        <v>0.27965156996646201</v>
+      </c>
+      <c r="F56" s="4">
+        <v>4.3770000000000003E-2</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B57" s="4">
+        <v>54.5625</v>
+      </c>
+      <c r="C57" s="4">
+        <v>0.77193475477295104</v>
+      </c>
+      <c r="D57" s="4">
+        <v>0.25241046831955899</v>
+      </c>
+      <c r="E57" s="4">
+        <v>0.26171768966206399</v>
+      </c>
+      <c r="F57" s="4">
+        <v>4.4339999999999997E-2</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B58" s="4">
+        <v>55.0625</v>
+      </c>
+      <c r="C58" s="4">
+        <v>0.67786785041802</v>
+      </c>
+      <c r="D58" s="4">
+        <v>0.301349325337331</v>
+      </c>
+      <c r="E58" s="4">
+        <v>0.28210469561807699</v>
+      </c>
+      <c r="F58" s="4">
+        <v>6.1600000000000002E-2</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B59" s="4">
+        <v>55.6875</v>
+      </c>
+      <c r="C59" s="4">
+        <v>0.58857068783849098</v>
+      </c>
+      <c r="D59" s="4">
+        <v>0.21884904086738899</v>
+      </c>
+      <c r="E59" s="4">
+        <v>0.39473222226135701</v>
+      </c>
+      <c r="F59" s="4">
+        <v>4.734E-2</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B60" s="4">
+        <v>56.3125</v>
+      </c>
+      <c r="C60" s="4">
+        <v>0.67373532687347004</v>
+      </c>
+      <c r="D60" s="4">
+        <v>0.20704633204633199</v>
+      </c>
+      <c r="E60" s="4">
+        <v>0.44027714467446599</v>
+      </c>
+      <c r="F60" s="4">
+        <v>4.9599999999999998E-2</v>
+      </c>
+    </row>
+    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B61" s="4">
+        <v>56.875</v>
+      </c>
+      <c r="C61" s="4">
+        <v>0.75532938035847597</v>
+      </c>
+      <c r="D61" s="4">
+        <v>0.31734202763545999</v>
+      </c>
+      <c r="E61" s="4">
+        <v>0.38181424667911201</v>
+      </c>
+      <c r="F61" s="4">
+        <v>5.0900000000000001E-2</v>
+      </c>
+    </row>
+    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B62" s="4">
+        <v>57.4375</v>
+      </c>
+      <c r="C62" s="4">
+        <v>0.83570367320774797</v>
+      </c>
+      <c r="D62" s="4">
+        <v>0.25058915946582899</v>
+      </c>
+      <c r="E62" s="4">
+        <v>0.32763488603900298</v>
+      </c>
+      <c r="F62" s="4">
+        <v>4.9160000000000002E-2</v>
+      </c>
+    </row>
+    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B63" s="4">
+        <v>57.875</v>
+      </c>
+      <c r="C63" s="4">
+        <v>0.82932262771749299</v>
+      </c>
+      <c r="D63" s="4">
+        <v>0.33504698728579302</v>
+      </c>
+      <c r="E63" s="4">
+        <v>0.22255540963595999</v>
+      </c>
+      <c r="F63" s="4">
+        <v>4.7750000000000001E-2</v>
+      </c>
+    </row>
+    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B64" s="4">
+        <v>58.3125</v>
+      </c>
+      <c r="C64" s="4">
+        <v>0.78438662008697801</v>
+      </c>
+      <c r="D64" s="4">
+        <v>0.30502392344497598</v>
+      </c>
+      <c r="E64" s="4">
+        <v>0.25136438090708602</v>
+      </c>
+      <c r="F64" s="4">
+        <v>4.3790000000000003E-2</v>
+      </c>
+    </row>
+    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B65" s="4">
+        <v>58.75</v>
+      </c>
+      <c r="C65" s="4">
+        <v>0.78592272364121796</v>
+      </c>
+      <c r="D65" s="4">
+        <v>0.22371475953565501</v>
+      </c>
+      <c r="E65" s="4">
+        <v>0.33649297652738702</v>
+      </c>
+      <c r="F65" s="4">
+        <v>4.2500000000000003E-2</v>
+      </c>
+    </row>
+    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B66" s="4">
+        <v>59.25</v>
+      </c>
+      <c r="C66" s="4">
+        <v>0.80483815013239501</v>
+      </c>
+      <c r="D66" s="4">
+        <v>0.25464239749953999</v>
+      </c>
+      <c r="E66" s="4">
+        <v>0.36925652530634001</v>
+      </c>
+      <c r="F66" s="4">
+        <v>3.9870000000000003E-2</v>
+      </c>
+    </row>
+    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B67" s="4">
+        <v>59.6875</v>
+      </c>
+      <c r="C67" s="4">
+        <v>0.782252579218088</v>
+      </c>
+      <c r="D67" s="4">
+        <v>0.14344941956882301</v>
+      </c>
+      <c r="E67" s="4">
+        <v>0.61785583103764896</v>
+      </c>
+      <c r="F67" s="4">
+        <v>3.7089999999999998E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B68" s="4">
+        <v>60.125</v>
+      </c>
+      <c r="C68" s="4">
+        <v>0.69353200585492902</v>
+      </c>
+      <c r="D68" s="4">
+        <v>7.1826550387596902E-2</v>
+      </c>
+      <c r="E68" s="4">
+        <v>0.82064494506760499</v>
+      </c>
+      <c r="F68" s="4">
+        <v>3.4389999999999997E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B69" s="4">
+        <v>60.5625</v>
+      </c>
+      <c r="C69" s="4">
+        <v>0.55151884522144101</v>
+      </c>
+      <c r="D69" s="4">
+        <v>0.119047619047619</v>
+      </c>
+      <c r="E69" s="4">
+        <v>0.56713812934027796</v>
+      </c>
+      <c r="F69" s="4">
+        <v>5.0700000000000002E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B70" s="4">
+        <v>60.9375</v>
+      </c>
+      <c r="C70" s="4">
+        <v>0.75407567890993399</v>
+      </c>
+      <c r="D70" s="4">
+        <v>0.17260973829631901</v>
+      </c>
+      <c r="E70" s="4">
+        <v>0.455269086919803</v>
+      </c>
+      <c r="F70" s="4">
+        <v>3.005E-2</v>
+      </c>
+    </row>
+    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B71" s="4">
+        <v>61.3125</v>
+      </c>
+      <c r="C71" s="4">
+        <v>0.875679654516901</v>
+      </c>
+      <c r="D71" s="4">
+        <v>0.19113984674329501</v>
+      </c>
+      <c r="E71" s="4">
+        <v>0.45505781311066001</v>
+      </c>
+      <c r="F71" s="4">
+        <v>3.073E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B72" s="4">
+        <v>61.75</v>
+      </c>
+      <c r="C72" s="4">
+        <v>0.97971109346604601</v>
+      </c>
+      <c r="D72" s="4">
+        <v>0.15614156835530901</v>
+      </c>
+      <c r="E72" s="4">
+        <v>0.51349708447810005</v>
+      </c>
+      <c r="F72" s="4">
+        <v>3.2300000000000002E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B73" s="4">
+        <v>62.0625</v>
+      </c>
+      <c r="C73" s="4">
+        <v>0.62780125900182004</v>
+      </c>
+      <c r="D73" s="4">
+        <v>0.128270348837209</v>
+      </c>
+      <c r="E73" s="4">
+        <v>0.63058226243964799</v>
+      </c>
+      <c r="F73" s="4">
+        <v>3.141E-2</v>
+      </c>
+    </row>
+    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B74" s="4">
+        <v>62.4375</v>
+      </c>
+      <c r="C74" s="4">
+        <v>0.77392621393255501</v>
+      </c>
+      <c r="D74" s="4">
+        <v>0.200507936507936</v>
+      </c>
+      <c r="E74" s="4">
+        <v>0.48955313552746998</v>
+      </c>
+      <c r="F74" s="4">
+        <v>3.1199999999999999E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B75" s="4">
+        <v>62.75</v>
+      </c>
+      <c r="C75" s="4">
+        <v>0.84671864759195403</v>
+      </c>
+      <c r="D75" s="4">
+        <v>0.200140056022409</v>
+      </c>
+      <c r="E75" s="4">
+        <v>0.389945448539886</v>
+      </c>
+      <c r="F75" s="4">
+        <v>3.1099999999999999E-2</v>
+      </c>
+    </row>
+    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B76" s="4">
+        <v>63.0625</v>
+      </c>
+      <c r="C76" s="4">
+        <v>0.81428895663190504</v>
+      </c>
+      <c r="D76" s="4">
+        <v>0.120531154239019</v>
+      </c>
+      <c r="E76" s="4">
+        <v>0.73195312499999998</v>
+      </c>
+      <c r="F76" s="4">
+        <v>2.954E-2</v>
+      </c>
+    </row>
+    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B77" s="4">
+        <v>63.4375</v>
+      </c>
+      <c r="C77" s="4">
+        <v>0.78736387015078402</v>
+      </c>
+      <c r="D77" s="4">
+        <v>0.16770508826583599</v>
+      </c>
+      <c r="E77" s="4">
+        <v>0.53327975091212099</v>
+      </c>
+      <c r="F77" s="4">
+        <v>4.8959999999999997E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
+      <c r="B78" s="4">
+        <v>63.8125</v>
+      </c>
+      <c r="C78" s="4">
+        <v>0.86609176044351899</v>
+      </c>
+      <c r="D78" s="4">
+        <v>0.14706331045003801</v>
+      </c>
+      <c r="E78" s="4">
+        <v>0.56396451991587504</v>
+      </c>
+      <c r="F78" s="4">
+        <v>4.9939999999999998E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C991E0F-807F-452A-B1E6-F6106868F4CF}">
+  <dimension ref="A1:L8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="11.2109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" style="3" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="20.2109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="20.2109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="20.2109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.2109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="20.2109375" style="3" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="12.28515625" style="3" bestFit="1" customWidth="1"/>
+    <col min="13" max="16384" width="9" style="3"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="C2" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="D2" s="7"/>
+      <c r="E2" s="7" t="s">
+        <v>61</v>
+      </c>
+      <c r="F2" s="7"/>
+      <c r="G2" s="7" t="s">
+        <v>62</v>
+      </c>
+      <c r="H2" s="7"/>
+      <c r="I2" s="7" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2" s="7"/>
+      <c r="K2" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="L2" s="7"/>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B3" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="G3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="H3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="I3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="J3" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B4" s="8" t="s">
+        <v>79</v>
+      </c>
+      <c r="C4" s="3">
+        <v>5.1260005134743993</v>
+      </c>
+      <c r="D4" s="3">
+        <v>5.6202528607056247E-2</v>
+      </c>
+      <c r="E4" s="3">
+        <v>6.2875622763928787</v>
+      </c>
+      <c r="F4" s="3">
+        <v>4.0749804263897897E-2</v>
+      </c>
+      <c r="G4" s="3">
+        <v>3.4308786548602339</v>
+      </c>
+      <c r="H4" s="3">
+        <v>9.718532302355036E-2</v>
+      </c>
+      <c r="I4" s="3">
+        <v>3.5662890491081627</v>
+      </c>
+      <c r="J4" s="3">
+        <v>3.4807503540155042E-2</v>
+      </c>
+      <c r="K4" s="3">
+        <v>3.4980501205411931</v>
+      </c>
+      <c r="L4" s="3">
+        <v>0.14075753616062087</v>
+      </c>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B5" s="8" t="s">
+        <v>80</v>
+      </c>
+      <c r="C5" s="3">
+        <v>6.0533793653072001</v>
+      </c>
+      <c r="D5" s="3">
+        <v>0.27425753742087577</v>
+      </c>
+      <c r="E5" s="3">
+        <v>7.4087193357177794</v>
+      </c>
+      <c r="F5" s="3">
+        <v>1.757771543454246</v>
+      </c>
+      <c r="G5" s="3">
+        <v>8.820121422513747</v>
+      </c>
+      <c r="H5" s="3">
+        <v>1.1019854878772506</v>
+      </c>
+      <c r="I5" s="3">
+        <v>5.120062776799883</v>
+      </c>
+      <c r="J5" s="3">
+        <v>0.26825472601247313</v>
+      </c>
+      <c r="K5" s="3">
+        <v>5.1215124901941014</v>
+      </c>
+      <c r="L5" s="3">
+        <v>8.6589161363726116E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B6" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="C6" s="3">
+        <v>5.6929378555999346</v>
+      </c>
+      <c r="D6" s="3">
+        <v>6.3018032402037322E-2</v>
+      </c>
+      <c r="E6" s="3">
+        <v>7.4625585851772041</v>
+      </c>
+      <c r="F6" s="3">
+        <v>0.40577152865610294</v>
+      </c>
+      <c r="G6" s="3">
+        <v>9.6706022213309684</v>
+      </c>
+      <c r="H6" s="3">
+        <v>0.60620463802192914</v>
+      </c>
+      <c r="I6" s="3">
+        <v>5.6350620111289675</v>
+      </c>
+      <c r="J6" s="3">
+        <v>1.6089783757587506</v>
+      </c>
+      <c r="K6" s="3">
+        <v>5.0806832545906762</v>
+      </c>
+      <c r="L6" s="3">
+        <v>0.10579510486484028</v>
+      </c>
+    </row>
+    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B7" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="C7" s="3">
+        <v>5.5146349918130539</v>
+      </c>
+      <c r="D7" s="3">
+        <v>0.15383846278846067</v>
+      </c>
+      <c r="E7" s="3">
+        <v>8.6623340634810742</v>
+      </c>
+      <c r="F7" s="3">
+        <v>1.2063274081747475</v>
+      </c>
+      <c r="G7" s="3">
+        <v>10.820624652101879</v>
+      </c>
+      <c r="H7" s="3">
+        <v>0.44766445143816058</v>
+      </c>
+      <c r="I7" s="3">
+        <v>11.084560869944104</v>
+      </c>
+      <c r="J7" s="3">
+        <v>0.52782160166195224</v>
+      </c>
+      <c r="K7" s="3">
+        <v>5.3187184872141859</v>
+      </c>
+      <c r="L7" s="3">
+        <v>7.6354912678497533E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
+      <c r="B8" s="8" t="s">
+        <v>83</v>
+      </c>
+      <c r="C8" s="3">
+        <v>5.2793717111154841</v>
+      </c>
+      <c r="D8" s="3">
+        <v>0.13319497514546036</v>
+      </c>
+      <c r="E8" s="3">
+        <v>9.4423826991447779</v>
+      </c>
+      <c r="F8" s="3">
+        <v>0.80286851165975748</v>
+      </c>
+      <c r="G8" s="3">
+        <v>9.2391955088562749</v>
+      </c>
+      <c r="H8" s="3">
+        <v>0.53734537137449079</v>
+      </c>
+      <c r="I8" s="3">
+        <v>5.2730039963730286</v>
+      </c>
+      <c r="J8" s="3">
+        <v>0.23580853278700439</v>
+      </c>
+      <c r="K8" s="3">
+        <v>5.1970329675951197</v>
+      </c>
+      <c r="L8" s="3">
+        <v>1.4004824198272231E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="5">
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:J2"/>
+    <mergeCell ref="K2:L2"/>
+  </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1749,7 +3601,7 @@
   <dimension ref="A1:J16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="N9" sqref="A1:XFD1048576"/>
+      <selection activeCell="B11" activeCellId="1" sqref="B2:J2 B11:J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
@@ -1759,41 +3611,41 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>19</v>
+        <v>93</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="F2" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="G2" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H2" s="3" t="s">
+      <c r="I2" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="J2" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J2" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B3" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C3" s="3">
         <v>0.24559</v>
@@ -1822,7 +3674,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B4" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C4" s="3">
         <v>0.32917000000000002</v>
@@ -1851,7 +3703,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B5" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C5" s="3">
         <v>0.32855000000000001</v>
@@ -1880,7 +3732,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B6" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C6" s="3">
         <v>6.3109999999999999E-2</v>
@@ -1909,7 +3761,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B7" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C7" s="3">
         <v>3.3579999999999999E-2</v>
@@ -1937,37 +3789,37 @@
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C11" s="3" t="s">
+      <c r="B11" s="2" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D11" s="2" t="s">
         <v>9</v>
       </c>
-      <c r="D11" s="3" t="s">
+      <c r="E11" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E11" s="3" t="s">
+      <c r="F11" s="2" t="s">
         <v>11</v>
       </c>
-      <c r="F11" s="3" t="s">
+      <c r="G11" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="G11" s="3" t="s">
+      <c r="H11" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H11" s="3" t="s">
+      <c r="I11" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="I11" s="3" t="s">
+      <c r="J11" s="2" t="s">
         <v>15</v>
-      </c>
-      <c r="J11" s="3" t="s">
-        <v>16</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B12" s="3" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3">
         <v>0.15026</v>
@@ -1996,7 +3848,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B13" s="3" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C13" s="3">
         <v>1.1195299999999999</v>
@@ -2025,7 +3877,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B14" s="3" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C14" s="3">
         <v>4.5665100000000001</v>
@@ -2054,7 +3906,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B15" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C15" s="3">
         <v>2.99E-3</v>
@@ -2083,7 +3935,7 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.35">
       <c r="B16" s="3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C16" s="3">
         <v>1.1607099999999999</v>
@@ -2121,12 +3973,12 @@
   <dimension ref="A1:E78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F7" sqref="A1:XFD1048576"/>
+      <selection activeCell="B3" sqref="B3:B78"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="9" style="3"/>
+    <col min="1" max="1" width="11.2109375" style="3" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.35546875" style="3" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="11" style="3" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="16.35546875" style="3" bestFit="1" customWidth="1"/>
@@ -2136,21 +3988,21 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>22</v>
+        <v>92</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.35">
@@ -3224,12 +5076,93 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31DCBD9B-572E-480E-940F-6E2D09F4E1DB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E21" sqref="E21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="16384" width="9.140625" style="10"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BE2E9CC-3ECE-4FEF-9D9F-3B0191A17888}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>87</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{16E53D82-0AD8-48A7-88A6-8AA21B3C18A5}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A4A05D63-38DE-465B-8BD8-9EF238380DC6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>89</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EA6CF458-721A-4C83-9116-97B4F634DBE4}">
   <dimension ref="A1:AG78"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="A1:AG78"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
   <cols>
@@ -3238,7 +5171,7 @@
   <sheetData>
     <row r="1" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A1" s="2" t="s">
-        <v>23</v>
+        <v>88</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
@@ -3276,100 +5209,100 @@
     <row r="2" spans="1:33" x14ac:dyDescent="0.35">
       <c r="A2" s="3"/>
       <c r="B2" s="3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C2" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="6" t="s">
+        <v>21</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>22</v>
+      </c>
+      <c r="F2" s="6" t="s">
+        <v>23</v>
+      </c>
+      <c r="G2" s="6" t="s">
         <v>24</v>
       </c>
-      <c r="D2" s="6" t="s">
+      <c r="H2" s="6" t="s">
         <v>25</v>
       </c>
-      <c r="E2" s="6" t="s">
+      <c r="I2" s="6" t="s">
         <v>26</v>
       </c>
-      <c r="F2" s="6" t="s">
+      <c r="J2" s="6" t="s">
         <v>27</v>
       </c>
-      <c r="G2" s="6" t="s">
+      <c r="K2" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="H2" s="6" t="s">
+      <c r="L2" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="I2" s="6" t="s">
+      <c r="M2" s="6" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="N2" s="6" t="s">
         <v>31</v>
       </c>
-      <c r="K2" s="6" t="s">
+      <c r="O2" s="6" t="s">
         <v>32</v>
       </c>
-      <c r="L2" s="6" t="s">
+      <c r="P2" s="6" t="s">
         <v>33</v>
       </c>
-      <c r="M2" s="6" t="s">
+      <c r="Q2" s="6" t="s">
         <v>34</v>
       </c>
-      <c r="N2" s="6" t="s">
+      <c r="R2" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="O2" s="6" t="s">
+      <c r="S2" s="6" t="s">
         <v>36</v>
       </c>
-      <c r="P2" s="6" t="s">
+      <c r="T2" s="6" t="s">
         <v>37</v>
       </c>
-      <c r="Q2" s="6" t="s">
+      <c r="U2" s="6" t="s">
         <v>38</v>
       </c>
-      <c r="R2" s="6" t="s">
+      <c r="V2" s="6" t="s">
         <v>39</v>
       </c>
-      <c r="S2" s="6" t="s">
+      <c r="W2" s="6" t="s">
         <v>40</v>
       </c>
-      <c r="T2" s="6" t="s">
+      <c r="X2" s="6" t="s">
         <v>41</v>
       </c>
-      <c r="U2" s="6" t="s">
+      <c r="Y2" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="V2" s="6" t="s">
+      <c r="Z2" s="6" t="s">
         <v>43</v>
       </c>
-      <c r="W2" s="6" t="s">
+      <c r="AA2" s="6" t="s">
         <v>44</v>
       </c>
-      <c r="X2" s="6" t="s">
+      <c r="AB2" s="6" t="s">
         <v>45</v>
       </c>
-      <c r="Y2" s="6" t="s">
+      <c r="AC2" s="6" t="s">
         <v>46</v>
       </c>
-      <c r="Z2" s="6" t="s">
+      <c r="AD2" s="6" t="s">
         <v>47</v>
       </c>
-      <c r="AA2" s="6" t="s">
+      <c r="AE2" s="6" t="s">
         <v>48</v>
       </c>
-      <c r="AB2" s="6" t="s">
+      <c r="AF2" s="6" t="s">
         <v>49</v>
       </c>
-      <c r="AC2" s="6" t="s">
+      <c r="AG2" s="6" t="s">
         <v>50</v>
-      </c>
-      <c r="AD2" s="6" t="s">
-        <v>51</v>
-      </c>
-      <c r="AE2" s="6" t="s">
-        <v>52</v>
-      </c>
-      <c r="AF2" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="AG2" s="6" t="s">
-        <v>54</v>
       </c>
     </row>
     <row r="3" spans="1:33" x14ac:dyDescent="0.35">
@@ -10902,1759 +12835,16 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4881D065-7F42-48A5-8123-7DA2F83916D9}">
-  <dimension ref="A1:D17"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1B98C81-80C8-427F-B7BF-4A4FAA0D56D4}">
+  <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="A1:XFD1048576"/>
+      <selection activeCell="H32" sqref="H32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="1" width="9" style="3"/>
-    <col min="2" max="2" width="29" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.35546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="11.2109375" style="3" bestFit="1" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="C2" s="3" t="s">
-        <v>61</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B3" s="3" t="s">
-        <v>57</v>
-      </c>
-      <c r="C3" s="3">
-        <v>285.86842105263156</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.19368680746181463</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>58</v>
-      </c>
-      <c r="C4" s="3">
-        <v>274.98684210526318</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.17799030157819645</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>59</v>
-      </c>
-      <c r="C5" s="3">
-        <v>281.06578947368422</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.17783665191148035</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>60</v>
-      </c>
-      <c r="C6" s="3">
-        <v>279.80263157894734</v>
-      </c>
-      <c r="D6" s="3">
-        <v>0.19606564496028608</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="C7" s="3">
-        <v>284.86842105263156</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.19368680746181463</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>80</v>
-      </c>
-      <c r="C8" s="3">
-        <v>283.86842105263156</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.1963500968886569</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="C9" s="3">
-        <v>283.7763157894737</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.195693493213733</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="C10" s="3">
-        <v>284.85526315789474</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.19490031133955762</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B11" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="C11" s="3">
-        <v>284.06578947368422</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.18168906492778136</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B12" s="3" t="s">
-        <v>84</v>
-      </c>
-      <c r="C12" s="3">
-        <v>283.86842105263156</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.19368680746181463</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B13" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="C13" s="3">
-        <v>283.86842105263156</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.19368680746181463</v>
-      </c>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B14" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="C14" s="3">
-        <v>283.93421052631578</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.19368092667034306</v>
-      </c>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B15" s="3" t="s">
-        <v>87</v>
-      </c>
-      <c r="C15" s="3">
-        <v>283.82894736842104</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.19193229225744421</v>
-      </c>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="B16" s="3" t="s">
-        <v>88</v>
-      </c>
-      <c r="C16" s="3">
-        <v>284.92105263157896</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.1820960960336557</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.35">
-      <c r="B17" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="C17" s="3">
-        <v>284.82894736842104</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.19550715169129626</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E173EE95-8E68-46B4-897D-E0DAFD1804F1}">
-  <dimension ref="A1:F78"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I15" sqref="A1:XFD1048576"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B2" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>62</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>64</v>
-      </c>
-      <c r="F2" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B3" s="3">
-        <v>28.0625</v>
-      </c>
-      <c r="C3" s="3">
-        <v>0.79439000000000004</v>
-      </c>
-      <c r="D3" s="3">
-        <v>0.14954000000000001</v>
-      </c>
-      <c r="E3" s="3">
-        <v>0.66630999999999996</v>
-      </c>
-      <c r="F3" s="3">
-        <v>0.26289000000000001</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B4" s="3">
-        <v>28.6875</v>
-      </c>
-      <c r="C4" s="3">
-        <v>1.0664199999999999</v>
-      </c>
-      <c r="D4" s="3">
-        <v>0.15995000000000001</v>
-      </c>
-      <c r="E4" s="3">
-        <v>0.50934999999999997</v>
-      </c>
-      <c r="F4" s="3">
-        <v>0.30427999999999999</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B5" s="3">
-        <v>29.375</v>
-      </c>
-      <c r="C5" s="3">
-        <v>0.67845</v>
-      </c>
-      <c r="D5" s="3">
-        <v>5.7189999999999998E-2</v>
-      </c>
-      <c r="E5" s="3">
-        <v>0.85280999999999996</v>
-      </c>
-      <c r="F5" s="3">
-        <v>0.39178000000000002</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B6" s="3">
-        <v>29.9375</v>
-      </c>
-      <c r="C6" s="3">
-        <v>0.73362000000000005</v>
-      </c>
-      <c r="D6" s="3">
-        <v>7.0510000000000003E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>0.78610999999999998</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.31730000000000003</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B7" s="3">
-        <v>30.6875</v>
-      </c>
-      <c r="C7" s="3">
-        <v>0.74714000000000003</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.12116</v>
-      </c>
-      <c r="E7" s="3">
-        <v>0.62802000000000002</v>
-      </c>
-      <c r="F7" s="3">
-        <v>0.31273000000000001</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B8" s="3">
-        <v>31.8125</v>
-      </c>
-      <c r="C8" s="3">
-        <v>0.90086999999999995</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.19186</v>
-      </c>
-      <c r="E8" s="3">
-        <v>0.38036999999999999</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.30423</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B9" s="3">
-        <v>33</v>
-      </c>
-      <c r="C9" s="3">
-        <v>0.70584999999999998</v>
-      </c>
-      <c r="D9" s="3">
-        <v>0.26255000000000001</v>
-      </c>
-      <c r="E9" s="3">
-        <v>0.26699000000000001</v>
-      </c>
-      <c r="F9" s="3">
-        <v>0.32880999999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B10" s="3">
-        <v>34.0625</v>
-      </c>
-      <c r="C10" s="3">
-        <v>0.63800000000000001</v>
-      </c>
-      <c r="D10" s="3">
-        <v>0.20483000000000001</v>
-      </c>
-      <c r="E10" s="3">
-        <v>0.40849000000000002</v>
-      </c>
-      <c r="F10" s="3">
-        <v>0.41448000000000002</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B11" s="3">
-        <v>35.25</v>
-      </c>
-      <c r="C11" s="3">
-        <v>0.77346000000000004</v>
-      </c>
-      <c r="D11" s="3">
-        <v>0.28464</v>
-      </c>
-      <c r="E11" s="3">
-        <v>0.30495</v>
-      </c>
-      <c r="F11" s="3">
-        <v>0.31631999999999999</v>
-      </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B12" s="3">
-        <v>36.5</v>
-      </c>
-      <c r="C12" s="3">
-        <v>0.84689999999999999</v>
-      </c>
-      <c r="D12" s="3">
-        <v>0.20724000000000001</v>
-      </c>
-      <c r="E12" s="3">
-        <v>0.31478</v>
-      </c>
-      <c r="F12" s="3">
-        <v>0.20141000000000001</v>
-      </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B13" s="3">
-        <v>37.625</v>
-      </c>
-      <c r="C13" s="3">
-        <v>0.6905</v>
-      </c>
-      <c r="D13" s="3">
-        <v>0.25109999999999999</v>
-      </c>
-      <c r="E13" s="3">
-        <v>0.26223000000000002</v>
-      </c>
-      <c r="F13" s="3">
-        <v>0.19206000000000001</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B14" s="3">
-        <v>38.8125</v>
-      </c>
-      <c r="C14" s="3">
-        <v>0.61170999999999998</v>
-      </c>
-      <c r="D14" s="3">
-        <v>0.24839</v>
-      </c>
-      <c r="E14" s="3">
-        <v>0.15021999999999999</v>
-      </c>
-      <c r="F14" s="3">
-        <v>0.25225999999999998</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B15" s="3">
-        <v>39.6875</v>
-      </c>
-      <c r="C15" s="3">
-        <v>0.59626999999999997</v>
-      </c>
-      <c r="D15" s="3">
-        <v>0.27903</v>
-      </c>
-      <c r="E15" s="3">
-        <v>0.15414</v>
-      </c>
-      <c r="F15" s="3">
-        <v>0.23876</v>
-      </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.35">
-      <c r="B16" s="3">
-        <v>40.25</v>
-      </c>
-      <c r="C16" s="3">
-        <v>0.64798999999999995</v>
-      </c>
-      <c r="D16" s="3">
-        <v>0.25402000000000002</v>
-      </c>
-      <c r="E16" s="3">
-        <v>0.13066</v>
-      </c>
-      <c r="F16" s="3">
-        <v>0.24152000000000001</v>
-      </c>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B17" s="3">
-        <v>40.6875</v>
-      </c>
-      <c r="C17" s="3">
-        <v>0.63402999999999998</v>
-      </c>
-      <c r="D17" s="3">
-        <v>0.26512000000000002</v>
-      </c>
-      <c r="E17" s="3">
-        <v>0.21675</v>
-      </c>
-      <c r="F17" s="3">
-        <v>0.23211000000000001</v>
-      </c>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B18" s="3">
-        <v>41.125</v>
-      </c>
-      <c r="C18" s="3">
-        <v>0.67467999999999995</v>
-      </c>
-      <c r="D18" s="3">
-        <v>0.29752000000000001</v>
-      </c>
-      <c r="E18" s="3">
-        <v>0.34244999999999998</v>
-      </c>
-      <c r="F18" s="3">
-        <v>0.24740999999999999</v>
-      </c>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B19" s="3">
-        <v>41.375</v>
-      </c>
-      <c r="C19" s="3">
-        <v>0.64692000000000005</v>
-      </c>
-      <c r="D19" s="3">
-        <v>0.18361</v>
-      </c>
-      <c r="E19" s="3">
-        <v>0.46507999999999999</v>
-      </c>
-      <c r="F19" s="3">
-        <v>0.27603</v>
-      </c>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B20" s="3">
-        <v>41.5625</v>
-      </c>
-      <c r="C20" s="3">
-        <v>0.56552000000000002</v>
-      </c>
-      <c r="D20" s="3">
-        <v>0.20216999999999999</v>
-      </c>
-      <c r="E20" s="3">
-        <v>0.37358000000000002</v>
-      </c>
-      <c r="F20" s="3">
-        <v>0.23022000000000001</v>
-      </c>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B21" s="3">
-        <v>41.8125</v>
-      </c>
-      <c r="C21" s="3">
-        <v>0.66578000000000004</v>
-      </c>
-      <c r="D21" s="3">
-        <v>0.21293000000000001</v>
-      </c>
-      <c r="E21" s="3">
-        <v>0.33066000000000001</v>
-      </c>
-      <c r="F21" s="3">
-        <v>0.21990999999999999</v>
-      </c>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B22" s="3">
-        <v>42</v>
-      </c>
-      <c r="C22" s="3">
-        <v>0.77010999999999996</v>
-      </c>
-      <c r="D22" s="3">
-        <v>0.1981</v>
-      </c>
-      <c r="E22" s="3">
-        <v>0.39100000000000001</v>
-      </c>
-      <c r="F22" s="3">
-        <v>0.27457999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B23" s="3">
-        <v>42.1875</v>
-      </c>
-      <c r="C23" s="3">
-        <v>0.64142999999999994</v>
-      </c>
-      <c r="D23" s="3">
-        <v>0.18639</v>
-      </c>
-      <c r="E23" s="3">
-        <v>0.48726999999999998</v>
-      </c>
-      <c r="F23" s="3">
-        <v>0.30559999999999998</v>
-      </c>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B24" s="3">
-        <v>42.3125</v>
-      </c>
-      <c r="C24" s="3">
-        <v>0.74870999999999999</v>
-      </c>
-      <c r="D24" s="3">
-        <v>0.21662000000000001</v>
-      </c>
-      <c r="E24" s="3">
-        <v>0.41910999999999998</v>
-      </c>
-      <c r="F24" s="3">
-        <v>0.36687999999999998</v>
-      </c>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B25" s="3">
-        <v>42.4375</v>
-      </c>
-      <c r="C25" s="3">
-        <v>0.71853999999999996</v>
-      </c>
-      <c r="D25" s="3">
-        <v>0.21082999999999999</v>
-      </c>
-      <c r="E25" s="3">
-        <v>0.40760999999999997</v>
-      </c>
-      <c r="F25" s="3">
-        <v>0.39061000000000001</v>
-      </c>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B26" s="3">
-        <v>42.6875</v>
-      </c>
-      <c r="C26" s="3">
-        <v>0.77710000000000001</v>
-      </c>
-      <c r="D26" s="3">
-        <v>0.21890999999999999</v>
-      </c>
-      <c r="E26" s="3">
-        <v>0.32935999999999999</v>
-      </c>
-      <c r="F26" s="3">
-        <v>0.36459000000000003</v>
-      </c>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B27" s="3">
-        <v>43</v>
-      </c>
-      <c r="C27" s="3">
-        <v>0.82898000000000005</v>
-      </c>
-      <c r="D27" s="3">
-        <v>0.21521000000000001</v>
-      </c>
-      <c r="E27" s="3">
-        <v>0.32783000000000001</v>
-      </c>
-      <c r="F27" s="3">
-        <v>0.40067000000000003</v>
-      </c>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B28" s="3">
-        <v>43.375</v>
-      </c>
-      <c r="C28" s="3">
-        <v>0.84916999999999998</v>
-      </c>
-      <c r="D28" s="3">
-        <v>0.18604000000000001</v>
-      </c>
-      <c r="E28" s="3">
-        <v>0.44225999999999999</v>
-      </c>
-      <c r="F28" s="3">
-        <v>0.33555000000000001</v>
-      </c>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B29" s="3">
-        <v>43.6875</v>
-      </c>
-      <c r="C29" s="3">
-        <v>0.74534</v>
-      </c>
-      <c r="D29" s="3">
-        <v>0.20427000000000001</v>
-      </c>
-      <c r="E29" s="3">
-        <v>0.39555000000000001</v>
-      </c>
-      <c r="F29" s="3">
-        <v>0.33155000000000001</v>
-      </c>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B30" s="3">
-        <v>44.0625</v>
-      </c>
-      <c r="C30" s="3">
-        <v>0.66308999999999996</v>
-      </c>
-      <c r="D30" s="3">
-        <v>0.28927000000000003</v>
-      </c>
-      <c r="E30" s="3">
-        <v>0.37868000000000002</v>
-      </c>
-      <c r="F30" s="3">
-        <v>0.27134999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B31" s="3">
-        <v>44.4375</v>
-      </c>
-      <c r="C31" s="3">
-        <v>0.76722999999999997</v>
-      </c>
-      <c r="D31" s="3">
-        <v>0.19997999999999999</v>
-      </c>
-      <c r="E31" s="3">
-        <v>0.41449999999999998</v>
-      </c>
-      <c r="F31" s="3">
-        <v>0.2374</v>
-      </c>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B32" s="3">
-        <v>44.8125</v>
-      </c>
-      <c r="C32" s="3">
-        <v>0.69132000000000005</v>
-      </c>
-      <c r="D32" s="3">
-        <v>0.25938</v>
-      </c>
-      <c r="E32" s="3">
-        <v>0.40975</v>
-      </c>
-      <c r="F32" s="3">
-        <v>0.42404999999999998</v>
-      </c>
-    </row>
-    <row r="33" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B33" s="3">
-        <v>45.3125</v>
-      </c>
-      <c r="C33" s="3">
-        <v>0.86382000000000003</v>
-      </c>
-      <c r="D33" s="3">
-        <v>0.17698</v>
-      </c>
-      <c r="E33" s="3">
-        <v>0.48197000000000001</v>
-      </c>
-      <c r="F33" s="3">
-        <v>0.33490999999999999</v>
-      </c>
-    </row>
-    <row r="34" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B34" s="3">
-        <v>45.75</v>
-      </c>
-      <c r="C34" s="3">
-        <v>0.81389999999999996</v>
-      </c>
-      <c r="D34" s="3">
-        <v>0.15956999999999999</v>
-      </c>
-      <c r="E34" s="3">
-        <v>0.57528999999999997</v>
-      </c>
-      <c r="F34" s="3">
-        <v>0.32458999999999999</v>
-      </c>
-    </row>
-    <row r="35" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B35" s="3">
-        <v>46.1875</v>
-      </c>
-      <c r="C35" s="3">
-        <v>0.84984000000000004</v>
-      </c>
-      <c r="D35" s="3">
-        <v>0.20660999999999999</v>
-      </c>
-      <c r="E35" s="3">
-        <v>0.40931000000000001</v>
-      </c>
-      <c r="F35" s="3">
-        <v>0.29418</v>
-      </c>
-    </row>
-    <row r="36" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B36" s="3">
-        <v>46.625</v>
-      </c>
-      <c r="C36" s="3">
-        <v>0.85019</v>
-      </c>
-      <c r="D36" s="3">
-        <v>0.25317000000000001</v>
-      </c>
-      <c r="E36" s="3">
-        <v>0.36198000000000002</v>
-      </c>
-      <c r="F36" s="3">
-        <v>0.28695999999999999</v>
-      </c>
-    </row>
-    <row r="37" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B37" s="3">
-        <v>47.125</v>
-      </c>
-      <c r="C37" s="3">
-        <v>0.86907000000000001</v>
-      </c>
-      <c r="D37" s="3">
-        <v>0.22527</v>
-      </c>
-      <c r="E37" s="3">
-        <v>0.22953999999999999</v>
-      </c>
-      <c r="F37" s="3">
-        <v>0.28177000000000002</v>
-      </c>
-    </row>
-    <row r="38" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B38" s="3">
-        <v>47.5625</v>
-      </c>
-      <c r="C38" s="3">
-        <v>0.73756999999999995</v>
-      </c>
-      <c r="D38" s="3">
-        <v>0.20188</v>
-      </c>
-      <c r="E38" s="3">
-        <v>0.35221000000000002</v>
-      </c>
-      <c r="F38" s="3">
-        <v>0.44829000000000002</v>
-      </c>
-    </row>
-    <row r="39" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B39" s="3">
-        <v>48</v>
-      </c>
-      <c r="C39" s="3">
-        <v>0.79547999999999996</v>
-      </c>
-      <c r="D39" s="3">
-        <v>0.25880999999999998</v>
-      </c>
-      <c r="E39" s="3">
-        <v>0.20476</v>
-      </c>
-      <c r="F39" s="3">
-        <v>0.37796999999999997</v>
-      </c>
-    </row>
-    <row r="40" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B40" s="3">
-        <v>48.375</v>
-      </c>
-      <c r="C40" s="3">
-        <v>0.74702000000000002</v>
-      </c>
-      <c r="D40" s="3">
-        <v>0.24174000000000001</v>
-      </c>
-      <c r="E40" s="3">
-        <v>0.23272000000000001</v>
-      </c>
-      <c r="F40" s="3">
-        <v>0.22947999999999999</v>
-      </c>
-    </row>
-    <row r="41" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B41" s="3">
-        <v>48.75</v>
-      </c>
-      <c r="C41" s="3">
-        <v>0.66634000000000004</v>
-      </c>
-      <c r="D41" s="3">
-        <v>0.24363000000000001</v>
-      </c>
-      <c r="E41" s="3">
-        <v>0.24335999999999999</v>
-      </c>
-      <c r="F41" s="3">
-        <v>0.24887000000000001</v>
-      </c>
-    </row>
-    <row r="42" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B42" s="3">
-        <v>49.1875</v>
-      </c>
-      <c r="C42" s="3">
-        <v>0.84152000000000005</v>
-      </c>
-      <c r="D42" s="3">
-        <v>0.22284000000000001</v>
-      </c>
-      <c r="E42" s="3">
-        <v>0.29189999999999999</v>
-      </c>
-      <c r="F42" s="3">
-        <v>0.32850000000000001</v>
-      </c>
-    </row>
-    <row r="43" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B43" s="3">
-        <v>49.5625</v>
-      </c>
-      <c r="C43" s="3">
-        <v>0.73465000000000003</v>
-      </c>
-      <c r="D43" s="3">
-        <v>0.21073</v>
-      </c>
-      <c r="E43" s="3">
-        <v>0.58601000000000003</v>
-      </c>
-      <c r="F43" s="3">
-        <v>0.27128000000000002</v>
-      </c>
-    </row>
-    <row r="44" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B44" s="3">
-        <v>49.875</v>
-      </c>
-      <c r="C44" s="3">
-        <v>0.68757000000000001</v>
-      </c>
-      <c r="D44" s="3">
-        <v>9.8000000000000004E-2</v>
-      </c>
-      <c r="E44" s="3">
-        <v>0.64983000000000002</v>
-      </c>
-      <c r="F44" s="3">
-        <v>0.26350000000000001</v>
-      </c>
-    </row>
-    <row r="45" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B45" s="3">
-        <v>50.1875</v>
-      </c>
-      <c r="C45" s="3">
-        <v>0.64641999999999999</v>
-      </c>
-      <c r="D45" s="3">
-        <v>0.15898999999999999</v>
-      </c>
-      <c r="E45" s="3">
-        <v>0.58328999999999998</v>
-      </c>
-      <c r="F45" s="3">
-        <v>0.29300999999999999</v>
-      </c>
-    </row>
-    <row r="46" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B46" s="3">
-        <v>50.5625</v>
-      </c>
-      <c r="C46" s="3">
-        <v>0.49915999999999999</v>
-      </c>
-      <c r="D46" s="3">
-        <v>0.10891000000000001</v>
-      </c>
-      <c r="E46" s="3">
-        <v>0.63244</v>
-      </c>
-      <c r="F46" s="3">
-        <v>0.31562000000000001</v>
-      </c>
-    </row>
-    <row r="47" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B47" s="3">
-        <v>50.9375</v>
-      </c>
-      <c r="C47" s="3">
-        <v>0.77512999999999999</v>
-      </c>
-      <c r="D47" s="3">
-        <v>0.12877</v>
-      </c>
-      <c r="E47" s="3">
-        <v>0.61140000000000005</v>
-      </c>
-      <c r="F47" s="3">
-        <v>0.33337</v>
-      </c>
-    </row>
-    <row r="48" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B48" s="3">
-        <v>51.3125</v>
-      </c>
-      <c r="C48" s="3">
-        <v>0.59709999999999996</v>
-      </c>
-      <c r="D48" s="3">
-        <v>0.12806999999999999</v>
-      </c>
-      <c r="E48" s="3">
-        <v>0.52534999999999998</v>
-      </c>
-      <c r="F48" s="3">
-        <v>0.37289</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B49" s="3">
-        <v>51.625</v>
-      </c>
-      <c r="C49" s="3">
-        <v>0.73334999999999995</v>
-      </c>
-      <c r="D49" s="3">
-        <v>0.28360999999999997</v>
-      </c>
-      <c r="E49" s="3">
-        <v>0.40721000000000002</v>
-      </c>
-      <c r="F49" s="3">
-        <v>0.38385999999999998</v>
-      </c>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B50" s="3">
-        <v>51.875</v>
-      </c>
-      <c r="C50" s="3">
-        <v>0.72263999999999995</v>
-      </c>
-      <c r="D50" s="3">
-        <v>0.30421999999999999</v>
-      </c>
-      <c r="E50" s="3">
-        <v>0.25434000000000001</v>
-      </c>
-      <c r="F50" s="3">
-        <v>0.33712999999999999</v>
-      </c>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B51" s="3">
-        <v>52.125</v>
-      </c>
-      <c r="C51" s="3">
-        <v>0.64802999999999999</v>
-      </c>
-      <c r="D51" s="3">
-        <v>0.30093999999999999</v>
-      </c>
-      <c r="E51" s="3">
-        <v>0.22408</v>
-      </c>
-      <c r="F51" s="3">
-        <v>0.33957999999999999</v>
-      </c>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B52" s="3">
-        <v>52.4375</v>
-      </c>
-      <c r="C52" s="3">
-        <v>0.72484999999999999</v>
-      </c>
-      <c r="D52" s="3">
-        <v>0.25048999999999999</v>
-      </c>
-      <c r="E52" s="3">
-        <v>0.13919999999999999</v>
-      </c>
-      <c r="F52" s="3">
-        <v>0.44685000000000002</v>
-      </c>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B53" s="3">
-        <v>52.75</v>
-      </c>
-      <c r="C53" s="3">
-        <v>0.71160999999999996</v>
-      </c>
-      <c r="D53" s="3">
-        <v>0.24313000000000001</v>
-      </c>
-      <c r="E53" s="3">
-        <v>0.1643</v>
-      </c>
-      <c r="F53" s="3">
-        <v>0.42125000000000001</v>
-      </c>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B54" s="3">
-        <v>53.0625</v>
-      </c>
-      <c r="C54" s="3">
-        <v>0.80957000000000001</v>
-      </c>
-      <c r="D54" s="3">
-        <v>0.25042999999999999</v>
-      </c>
-      <c r="E54" s="3">
-        <v>0.18704000000000001</v>
-      </c>
-      <c r="F54" s="3">
-        <v>0.34792000000000001</v>
-      </c>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B55" s="3">
-        <v>53.5</v>
-      </c>
-      <c r="C55" s="3">
-        <v>0.71503000000000005</v>
-      </c>
-      <c r="D55" s="3">
-        <v>0.28908</v>
-      </c>
-      <c r="E55" s="3">
-        <v>0.17054</v>
-      </c>
-      <c r="F55" s="3">
-        <v>0.34461000000000003</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B56" s="3">
-        <v>54</v>
-      </c>
-      <c r="C56" s="3">
-        <v>0.70542000000000005</v>
-      </c>
-      <c r="D56" s="3">
-        <v>0.26808999999999999</v>
-      </c>
-      <c r="E56" s="3">
-        <v>0.15356</v>
-      </c>
-      <c r="F56" s="3">
-        <v>0.37536999999999998</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B57" s="3">
-        <v>54.5625</v>
-      </c>
-      <c r="C57" s="3">
-        <v>0.62041999999999997</v>
-      </c>
-      <c r="D57" s="3">
-        <v>0.29477999999999999</v>
-      </c>
-      <c r="E57" s="3">
-        <v>0.19292000000000001</v>
-      </c>
-      <c r="F57" s="3">
-        <v>0.35722999999999999</v>
-      </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B58" s="3">
-        <v>55.0625</v>
-      </c>
-      <c r="C58" s="3">
-        <v>0.60392999999999997</v>
-      </c>
-      <c r="D58" s="3">
-        <v>0.26355000000000001</v>
-      </c>
-      <c r="E58" s="3">
-        <v>0.32140999999999997</v>
-      </c>
-      <c r="F58" s="3">
-        <v>0.36712</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B59" s="3">
-        <v>55.6875</v>
-      </c>
-      <c r="C59" s="3">
-        <v>0.70765999999999996</v>
-      </c>
-      <c r="D59" s="3">
-        <v>0.26501000000000002</v>
-      </c>
-      <c r="E59" s="3">
-        <v>0.34209000000000001</v>
-      </c>
-      <c r="F59" s="3">
-        <v>0.38224000000000002</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B60" s="3">
-        <v>56.3125</v>
-      </c>
-      <c r="C60" s="3">
-        <v>0.72267000000000003</v>
-      </c>
-      <c r="D60" s="3">
-        <v>0.34722999999999998</v>
-      </c>
-      <c r="E60" s="3">
-        <v>0.28619</v>
-      </c>
-      <c r="F60" s="3">
-        <v>0.4007</v>
-      </c>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B61" s="3">
-        <v>56.875</v>
-      </c>
-      <c r="C61" s="3">
-        <v>0.71675</v>
-      </c>
-      <c r="D61" s="3">
-        <v>0.23635</v>
-      </c>
-      <c r="E61" s="3">
-        <v>0.23411999999999999</v>
-      </c>
-      <c r="F61" s="3">
-        <v>0.31176999999999999</v>
-      </c>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B62" s="3">
-        <v>57.4375</v>
-      </c>
-      <c r="C62" s="3">
-        <v>0.74870999999999999</v>
-      </c>
-      <c r="D62" s="3">
-        <v>0.29842000000000002</v>
-      </c>
-      <c r="E62" s="3">
-        <v>0.15551000000000001</v>
-      </c>
-      <c r="F62" s="3">
-        <v>0.30824000000000001</v>
-      </c>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B63" s="3">
-        <v>57.875</v>
-      </c>
-      <c r="C63" s="3">
-        <v>0.72114</v>
-      </c>
-      <c r="D63" s="3">
-        <v>0.29677999999999999</v>
-      </c>
-      <c r="E63" s="3">
-        <v>0.18986</v>
-      </c>
-      <c r="F63" s="3">
-        <v>0.33584000000000003</v>
-      </c>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B64" s="3">
-        <v>58.3125</v>
-      </c>
-      <c r="C64" s="3">
-        <v>0.73109999999999997</v>
-      </c>
-      <c r="D64" s="3">
-        <v>0.29765000000000003</v>
-      </c>
-      <c r="E64" s="3">
-        <v>0.26221</v>
-      </c>
-      <c r="F64" s="3">
-        <v>0.34599999999999997</v>
-      </c>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B65" s="3">
-        <v>58.75</v>
-      </c>
-      <c r="C65" s="3">
-        <v>0.83226999999999995</v>
-      </c>
-      <c r="D65" s="3">
-        <v>0.27235999999999999</v>
-      </c>
-      <c r="E65" s="3">
-        <v>0.26658999999999999</v>
-      </c>
-      <c r="F65" s="3">
-        <v>0.36577999999999999</v>
-      </c>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B66" s="3">
-        <v>59.25</v>
-      </c>
-      <c r="C66" s="3">
-        <v>0.77536000000000005</v>
-      </c>
-      <c r="D66" s="3">
-        <v>0.10735</v>
-      </c>
-      <c r="E66" s="3">
-        <v>0.62119000000000002</v>
-      </c>
-      <c r="F66" s="3">
-        <v>0.35510000000000003</v>
-      </c>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B67" s="3">
-        <v>59.6875</v>
-      </c>
-      <c r="C67" s="3">
-        <v>0.56915000000000004</v>
-      </c>
-      <c r="D67" s="3">
-        <v>0.11985</v>
-      </c>
-      <c r="E67" s="3">
-        <v>0.59192999999999996</v>
-      </c>
-      <c r="F67" s="3">
-        <v>0.33784999999999998</v>
-      </c>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B68" s="3">
-        <v>60.125</v>
-      </c>
-      <c r="C68" s="3">
-        <v>0.72677999999999998</v>
-      </c>
-      <c r="D68" s="3">
-        <v>0.18731999999999999</v>
-      </c>
-      <c r="E68" s="3">
-        <v>0.42454999999999998</v>
-      </c>
-      <c r="F68" s="3">
-        <v>0.31630999999999998</v>
-      </c>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B69" s="3">
-        <v>60.5625</v>
-      </c>
-      <c r="C69" s="3">
-        <v>0.89888000000000001</v>
-      </c>
-      <c r="D69" s="3">
-        <v>0.18704999999999999</v>
-      </c>
-      <c r="E69" s="3">
-        <v>0.40589999999999998</v>
-      </c>
-      <c r="F69" s="3">
-        <v>0.33023000000000002</v>
-      </c>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B70" s="3">
-        <v>60.9375</v>
-      </c>
-      <c r="C70" s="3">
-        <v>0.91883999999999999</v>
-      </c>
-      <c r="D70" s="3">
-        <v>0.17154</v>
-      </c>
-      <c r="E70" s="3">
-        <v>0.45773999999999998</v>
-      </c>
-      <c r="F70" s="3">
-        <v>0.33850999999999998</v>
-      </c>
-    </row>
-    <row r="71" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B71" s="3">
-        <v>61.3125</v>
-      </c>
-      <c r="C71" s="3">
-        <v>0.67496</v>
-      </c>
-      <c r="D71" s="3">
-        <v>0.16883000000000001</v>
-      </c>
-      <c r="E71" s="3">
-        <v>0.53047999999999995</v>
-      </c>
-      <c r="F71" s="3">
-        <v>0.35936000000000001</v>
-      </c>
-    </row>
-    <row r="72" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B72" s="3">
-        <v>61.75</v>
-      </c>
-      <c r="C72" s="3">
-        <v>0.83669000000000004</v>
-      </c>
-      <c r="D72" s="3">
-        <v>0.20149</v>
-      </c>
-      <c r="E72" s="3">
-        <v>0.43089</v>
-      </c>
-      <c r="F72" s="3">
-        <v>0.33914</v>
-      </c>
-    </row>
-    <row r="73" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B73" s="3">
-        <v>62.0625</v>
-      </c>
-      <c r="C73" s="3">
-        <v>0.89856999999999998</v>
-      </c>
-      <c r="D73" s="3">
-        <v>0.21870999999999999</v>
-      </c>
-      <c r="E73" s="3">
-        <v>0.33624999999999999</v>
-      </c>
-      <c r="F73" s="3">
-        <v>0.40365000000000001</v>
-      </c>
-    </row>
-    <row r="74" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B74" s="3">
-        <v>62.4375</v>
-      </c>
-      <c r="C74" s="3">
-        <v>0.93576000000000004</v>
-      </c>
-      <c r="D74" s="3">
-        <v>0.22499</v>
-      </c>
-      <c r="E74" s="3">
-        <v>0.29898999999999998</v>
-      </c>
-      <c r="F74" s="3">
-        <v>0.38185999999999998</v>
-      </c>
-    </row>
-    <row r="75" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B75" s="3">
-        <v>62.75</v>
-      </c>
-      <c r="C75" s="3">
-        <v>0.88609000000000004</v>
-      </c>
-      <c r="D75" s="3">
-        <v>0.23397000000000001</v>
-      </c>
-      <c r="E75" s="3">
-        <v>0.39782000000000001</v>
-      </c>
-      <c r="F75" s="3">
-        <v>0.30381999999999998</v>
-      </c>
-    </row>
-    <row r="76" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B76" s="3">
-        <v>63.0625</v>
-      </c>
-    </row>
-    <row r="77" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B77" s="3">
-        <v>63.4375</v>
-      </c>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.35">
-      <c r="B78" s="3">
-        <v>63.8125</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7C991E0F-807F-452A-B1E6-F6106868F4CF}">
-  <dimension ref="A1:L8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
-  <cols>
-    <col min="1" max="16384" width="9" style="3"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C2" s="7" t="s">
-        <v>66</v>
-      </c>
-      <c r="D2" s="7"/>
-      <c r="E2" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="H2" s="7"/>
-      <c r="I2" s="7" t="s">
-        <v>69</v>
-      </c>
-      <c r="J2" s="7"/>
-      <c r="K2" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="L2" s="7"/>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="C3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="E3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="F3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="G3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="H3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="I3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="J3" s="3" t="s">
-        <v>77</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>76</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B4" s="3" t="s">
-        <v>71</v>
-      </c>
-      <c r="C4" s="3">
-        <v>5.1260005134743993</v>
-      </c>
-      <c r="D4" s="3">
-        <v>5.6202528607056247E-2</v>
-      </c>
-      <c r="E4" s="3">
-        <v>6.2875622763928787</v>
-      </c>
-      <c r="F4" s="3">
-        <v>4.0749804263897897E-2</v>
-      </c>
-      <c r="G4" s="3">
-        <v>3.4308786548602339</v>
-      </c>
-      <c r="H4" s="3">
-        <v>9.718532302355036E-2</v>
-      </c>
-      <c r="I4" s="3">
-        <v>3.5662890491081627</v>
-      </c>
-      <c r="J4" s="3">
-        <v>3.4807503540155042E-2</v>
-      </c>
-      <c r="K4" s="3">
-        <v>3.4980501205411931</v>
-      </c>
-      <c r="L4" s="3">
-        <v>0.14075753616062087</v>
-      </c>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B5" s="3" t="s">
-        <v>72</v>
-      </c>
-      <c r="C5" s="3">
-        <v>6.0533793653072001</v>
-      </c>
-      <c r="D5" s="3">
-        <v>0.27425753742087577</v>
-      </c>
-      <c r="E5" s="3">
-        <v>7.4087193357177794</v>
-      </c>
-      <c r="F5" s="3">
-        <v>1.757771543454246</v>
-      </c>
-      <c r="G5" s="3">
-        <v>8.820121422513747</v>
-      </c>
-      <c r="H5" s="3">
-        <v>1.1019854878772506</v>
-      </c>
-      <c r="I5" s="3">
-        <v>5.120062776799883</v>
-      </c>
-      <c r="J5" s="3">
-        <v>0.26825472601247313</v>
-      </c>
-      <c r="K5" s="3">
-        <v>5.1215124901941014</v>
-      </c>
-      <c r="L5" s="3">
-        <v>8.6589161363726116E-2</v>
-      </c>
-    </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
-        <v>73</v>
-      </c>
-      <c r="C6" s="3">
-        <v>5.6929378555999346</v>
-      </c>
-      <c r="D6" s="3">
-        <v>6.3018032402037322E-2</v>
-      </c>
-      <c r="E6" s="3">
-        <v>7.4625585851772041</v>
-      </c>
-      <c r="F6" s="3">
-        <v>0.40577152865610294</v>
-      </c>
-      <c r="G6" s="3">
-        <v>9.6706022213309684</v>
-      </c>
-      <c r="H6" s="3">
-        <v>0.60620463802192914</v>
-      </c>
-      <c r="I6" s="3">
-        <v>5.6350620111289675</v>
-      </c>
-      <c r="J6" s="3">
-        <v>1.6089783757587506</v>
-      </c>
-      <c r="K6" s="3">
-        <v>5.0806832545906762</v>
-      </c>
-      <c r="L6" s="3">
-        <v>0.10579510486484028</v>
-      </c>
-    </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>74</v>
-      </c>
-      <c r="C7" s="3">
-        <v>5.5146349918130539</v>
-      </c>
-      <c r="D7" s="3">
-        <v>0.15383846278846067</v>
-      </c>
-      <c r="E7" s="3">
-        <v>8.6623340634810742</v>
-      </c>
-      <c r="F7" s="3">
-        <v>1.2063274081747475</v>
-      </c>
-      <c r="G7" s="3">
-        <v>10.820624652101879</v>
-      </c>
-      <c r="H7" s="3">
-        <v>0.44766445143816058</v>
-      </c>
-      <c r="I7" s="3">
-        <v>11.084560869944104</v>
-      </c>
-      <c r="J7" s="3">
-        <v>0.52782160166195224</v>
-      </c>
-      <c r="K7" s="3">
-        <v>5.3187184872141859</v>
-      </c>
-      <c r="L7" s="3">
-        <v>7.6354912678497533E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="C8" s="3">
-        <v>5.2793717111154841</v>
-      </c>
-      <c r="D8" s="3">
-        <v>0.13319497514546036</v>
-      </c>
-      <c r="E8" s="3">
-        <v>9.4423826991447779</v>
-      </c>
-      <c r="F8" s="3">
-        <v>0.80286851165975748</v>
-      </c>
-      <c r="G8" s="3">
-        <v>9.2391955088562749</v>
-      </c>
-      <c r="H8" s="3">
-        <v>0.53734537137449079</v>
-      </c>
-      <c r="I8" s="3">
-        <v>5.2730039963730286</v>
-      </c>
-      <c r="J8" s="3">
-        <v>0.23580853278700439</v>
-      </c>
-      <c r="K8" s="3">
-        <v>5.1970329675951197</v>
-      </c>
-      <c r="L8" s="3">
-        <v>1.4004824198272231E-2</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:J2"/>
-    <mergeCell ref="K2:L2"/>
-  </mergeCells>
+  <sheetFormatPr defaultRowHeight="14.15" x14ac:dyDescent="0.35"/>
+  <sheetData/>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
